--- a/target/test-classes/TestResult.xlsx
+++ b/target/test-classes/TestResult.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="18">
   <si>
     <t>VerifyLikedBasketTest</t>
   </si>
@@ -28,49 +28,46 @@
     <t>20231222_034506</t>
   </si>
   <si>
-    <t>20231222_034605</t>
-  </si>
-  <si>
     <t>Test Sonuçları</t>
   </si>
   <si>
-    <t>20231222_034831</t>
-  </si>
-  <si>
-    <t>20231222_035000</t>
-  </si>
-  <si>
     <t>Passed</t>
   </si>
   <si>
     <t>20231222_035328</t>
   </si>
   <si>
-    <t>20231222_040134</t>
-  </si>
-  <si>
-    <t>20231222_040227</t>
-  </si>
-  <si>
-    <t>20231222_040935</t>
-  </si>
-  <si>
-    <t>20231222_041125</t>
-  </si>
-  <si>
-    <t>20231222_041304</t>
-  </si>
-  <si>
-    <t>20231222_041419</t>
-  </si>
-  <si>
-    <t>20231225_121327</t>
-  </si>
-  <si>
-    <t>20231225_121559</t>
-  </si>
-  <si>
-    <t>20231225_121805</t>
+    <t>20231231_051319</t>
+  </si>
+  <si>
+    <t>20231231_051519</t>
+  </si>
+  <si>
+    <t>20231231_051631</t>
+  </si>
+  <si>
+    <t>20231231_051738</t>
+  </si>
+  <si>
+    <t>20231231_051900</t>
+  </si>
+  <si>
+    <t>20231231_052039</t>
+  </si>
+  <si>
+    <t>20231231_052217</t>
+  </si>
+  <si>
+    <t>20231231_052344</t>
+  </si>
+  <si>
+    <t>20231231_052546</t>
+  </si>
+  <si>
+    <t>20231231_052628</t>
+  </si>
+  <si>
+    <t>20231231_052724</t>
   </si>
 </sst>
 </file>
@@ -426,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,7 +438,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -473,10 +470,10 @@
         <v>0</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -487,7 +484,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -498,7 +495,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -506,7 +503,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>9</v>
@@ -598,17 +595,6 @@
       </c>
       <c r="C15" t="s" s="0">
         <v>17</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B16" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s" s="0">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/target/test-classes/TestResult.xlsx
+++ b/target/test-classes/TestResult.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="19">
   <si>
     <t>VerifyLikedBasketTest</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>20231231_052724</t>
+  </si>
+  <si>
+    <t>20231231_052855</t>
   </si>
 </sst>
 </file>
@@ -423,7 +426,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
@@ -597,6 +600,17 @@
         <v>17</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>

--- a/target/test-classes/TestResult.xlsx
+++ b/target/test-classes/TestResult.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="36">
   <si>
     <t>VerifyLikedBasketTest</t>
   </si>
@@ -37,47 +37,97 @@
     <t>20231222_035328</t>
   </si>
   <si>
-    <t>20231231_051319</t>
-  </si>
-  <si>
-    <t>20231231_051519</t>
-  </si>
-  <si>
-    <t>20231231_051631</t>
-  </si>
-  <si>
-    <t>20231231_051738</t>
-  </si>
-  <si>
-    <t>20231231_051900</t>
-  </si>
-  <si>
-    <t>20231231_052039</t>
-  </si>
-  <si>
-    <t>20231231_052217</t>
-  </si>
-  <si>
-    <t>20231231_052344</t>
-  </si>
-  <si>
-    <t>20231231_052546</t>
-  </si>
-  <si>
-    <t>20231231_052628</t>
-  </si>
-  <si>
-    <t>20231231_052724</t>
-  </si>
-  <si>
     <t>20231231_052855</t>
+  </si>
+  <si>
+    <t>20231231_054040</t>
+  </si>
+  <si>
+    <t>20231231_065315</t>
+  </si>
+  <si>
+    <t>20231231_104135</t>
+  </si>
+  <si>
+    <t>20231231_105856</t>
+  </si>
+  <si>
+    <t>20231231_105958</t>
+  </si>
+  <si>
+    <t>20231231_112115</t>
+  </si>
+  <si>
+    <t>20231231_112455</t>
+  </si>
+  <si>
+    <t>20231231_112552</t>
+  </si>
+  <si>
+    <t>20231231_112653</t>
+  </si>
+  <si>
+    <t>20231231_112913</t>
+  </si>
+  <si>
+    <t>20231231_113219</t>
+  </si>
+  <si>
+    <t>20231231_113452</t>
+  </si>
+  <si>
+    <t>20231231_114004</t>
+  </si>
+  <si>
+    <t>20231231_114058</t>
+  </si>
+  <si>
+    <t>20231231_115721</t>
+  </si>
+  <si>
+    <t>20240101_120347</t>
+  </si>
+  <si>
+    <t>20240101_120724</t>
+  </si>
+  <si>
+    <t>20240101_120815</t>
+  </si>
+  <si>
+    <t>20240101_121550</t>
+  </si>
+  <si>
+    <t>20240101_122644</t>
+  </si>
+  <si>
+    <t>20240101_122840</t>
+  </si>
+  <si>
+    <t>20240101_122948</t>
+  </si>
+  <si>
+    <t>20240101_123312</t>
+  </si>
+  <si>
+    <t>20240101_123355</t>
+  </si>
+  <si>
+    <t>20240101_123451</t>
+  </si>
+  <si>
+    <t>20240101_123548</t>
+  </si>
+  <si>
+    <t>20240101_123643</t>
+  </si>
+  <si>
+    <t>20240101_123740</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -426,17 +476,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="20.7109375"/>
-    <col min="2" max="2" customWidth="true" width="8.140625"/>
-    <col min="3" max="3" customWidth="true" width="20.5703125"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -447,168 +497,355 @@
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="0">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s" s="0">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s" s="0">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s" s="0">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s" s="0">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s" s="0">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s" s="0">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s" s="0">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s" s="0">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s" s="0">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s" s="0">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s" s="0">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B14" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s" s="0">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B15" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s" s="0">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B16" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s" s="0">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
